--- a/biology/Zoologie/Aelurillus_v-insignitus/Aelurillus_v-insignitus.xlsx
+++ b/biology/Zoologie/Aelurillus_v-insignitus/Aelurillus_v-insignitus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aelurillus v-insignitus, le Saltique marqué[1], est une espèce d'araignées aranéomorphes de la famille des Salticidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aelurillus v-insignitus, le Saltique marqué, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en écozone paléarctique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en écozone paléarctique.
 C'est la seule espèce du genre Aelurillus présente dans le nord-ouest de l'Europe.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans des milieux très secs et ouverts qui présentent des zones de sol nu.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 4,05 à 5 mm et les femelles de 5,5 à 7,7 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 4,05 à 5 mm et les femelles de 5,5 à 7,7 mm.
 Le mâle a des rangées de poils en forme de V (d'où le nom scientifique de l'espèce) sur la tête et une bande médiane blanche prononcée sur l'abdomen. La femelle est tachetée de brun.
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes sont visibles d'avril à juillet.
 </t>
@@ -637,9 +657,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.0, 30/06/2021)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.0, 30/06/2021) :
 Aelurillus v-insignitus v-insignitus (Clerck, 1757)
 Aelurillus v-insignitus morulus (Simon, 1937)
 Aelurillus v-insignitus obsoletus Kulczyński, 1891</t>
@@ -670,7 +692,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Clerck, 1757 : Svenska spindlar, uti sina hufvud-slågter indelte samt under några och sextio särskildte arter beskrefne och med illuminerade figurer uplyste. Stockholmiae, p. 1-154.
 Chyzer &amp; Kulczyński, 1891 : Araneae Hungariae. Academia Scientarum Hungaricae, Budapest, Tomus I, p. 1-170.
